--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,17 +5,26 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emanu\Desktop\UNIGE\Primo Anno\Secondo semestre\RT2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aless\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43B8704-A53B-4E76-87EC-3756B4F02121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF1D202-0C9C-47E3-9BF6-1C1282F1AC62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C140248F-D851-4856-A013-9175C112595F}"/>
+    <workbookView xWindow="-90" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C140248F-D851-4856-A013-9175C112595F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">Sheet2!$C$33</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="46">
   <si>
     <t>Emanuele</t>
   </si>
@@ -103,42 +112,6 @@
   </si>
   <si>
     <t>deviazione standard</t>
-  </si>
-  <si>
-    <t>t-Test: Paired Two Sample for Means</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Variance</t>
-  </si>
-  <si>
-    <t>Observations</t>
-  </si>
-  <si>
-    <t>Pearson Correlation</t>
-  </si>
-  <si>
-    <t>Hypothesized Mean Difference</t>
-  </si>
-  <si>
-    <t>df</t>
-  </si>
-  <si>
-    <t>t Stat</t>
-  </si>
-  <si>
-    <t>P(T&lt;=t) one-tail</t>
-  </si>
-  <si>
-    <t>t Critical one-tail</t>
-  </si>
-  <si>
-    <t>P(T&lt;=t) two-tail</t>
-  </si>
-  <si>
-    <t>t Critical two-tail</t>
   </si>
   <si>
     <t>Interpretazione dei Risultati del t-Test
@@ -248,6 +221,48 @@
 Ambienti 1 e 2: Bot B è significativamente più affidabile di Bot A in termini di ripetibilità dei tempi di completamento.
 Ambiente 3: Bot B è più affidabile secondo il test a una coda, ma non secondo il test a due code.</t>
   </si>
+  <si>
+    <t>Test t: due campioni accoppiati per medie</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Varianza</t>
+  </si>
+  <si>
+    <t>Osservazioni</t>
+  </si>
+  <si>
+    <t>Correlazione di Pearson</t>
+  </si>
+  <si>
+    <t>Differenza ipotizzata per le medie</t>
+  </si>
+  <si>
+    <t>gdl</t>
+  </si>
+  <si>
+    <t>Stat t</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) una coda</t>
+  </si>
+  <si>
+    <t>t critico una coda</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) due code</t>
+  </si>
+  <si>
+    <t>t critico due code</t>
+  </si>
+  <si>
+    <t>&lt;0.05</t>
+  </si>
+  <si>
+    <t>&gt;0.05</t>
+  </si>
 </sst>
 </file>
 
@@ -258,7 +273,7 @@
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="0.00000E+00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,24 +287,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -306,22 +319,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -330,14 +332,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -347,9 +342,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -367,7 +370,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -670,7 +673,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$4:$D$18</c:f>
+              <c:f>Sheet2!$E$4:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -942,7 +945,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1106,7 +1109,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$H$4:$H$18</c:f>
+              <c:f>Sheet2!$I$4:$I$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1245,7 +1248,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$I$4:$I$18</c:f>
+              <c:f>Sheet2!$K$4:$K$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1517,7 +1520,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1681,7 +1684,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$M$4:$M$18</c:f>
+              <c:f>Sheet2!$O$4:$O$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1820,7 +1823,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$N$4:$N$18</c:f>
+              <c:f>Sheet2!$Q$4:$Q$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3703,13 +3706,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1270000</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>542924</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3737,15 +3740,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3775,15 +3778,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>561976</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3814,12 +3817,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4137,43 +4136,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30DE3EDD-2D79-4B1F-971C-C2E88E31C2EC}">
   <dimension ref="B1:AA27"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
     <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="22" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="22" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>5</v>
       </c>
@@ -4187,7 +4186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -4251,7 +4250,7 @@
         <v>1.3522844523957153E-17</v>
       </c>
     </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>1</v>
       </c>
@@ -4326,7 +4325,7 @@
         <v>1.3516325594737879</v>
       </c>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>2</v>
       </c>
@@ -4401,7 +4400,7 @@
         <v>0.47873575792044398</v>
       </c>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>3</v>
       </c>
@@ -4476,7 +4475,7 @@
         <v>0.23611565483377756</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>4</v>
       </c>
@@ -4551,7 +4550,7 @@
         <v>838.58877611520734</v>
       </c>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>5</v>
       </c>
@@ -4626,7 +4625,7 @@
         <v>1.433629461420455</v>
       </c>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>6</v>
       </c>
@@ -4701,7 +4700,7 @@
         <v>3.3735893377766609E-4</v>
       </c>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>7</v>
       </c>
@@ -4776,7 +4775,7 @@
         <v>3.4528081367110844E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>8</v>
       </c>
@@ -4851,7 +4850,7 @@
         <v>916.78530145672732</v>
       </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>9</v>
       </c>
@@ -4926,7 +4925,7 @@
         <v>449.11369231560695</v>
       </c>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>10</v>
       </c>
@@ -5001,7 +5000,7 @@
         <v>0.16504935432710821</v>
       </c>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>11</v>
       </c>
@@ -5076,7 +5075,7 @@
         <v>0.76704782709376829</v>
       </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>12</v>
       </c>
@@ -5151,7 +5150,7 @@
         <v>104.84065689781367</v>
       </c>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>13</v>
       </c>
@@ -5226,7 +5225,7 @@
         <v>161.67370019614043</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>14</v>
       </c>
@@ -5301,7 +5300,7 @@
         <v>590.67893951136057</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>15</v>
       </c>
@@ -5376,7 +5375,7 @@
         <v>18.77170582426713</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>8</v>
       </c>
@@ -5416,7 +5415,7 @@
         <v>86.136217333333335</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>9</v>
       </c>
@@ -5451,7 +5450,7 @@
         <v>205.66132322483287</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>10</v>
       </c>
@@ -5480,7 +5479,7 @@
         <v>14.340896876584562</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>11</v>
       </c>
@@ -5497,7 +5496,7 @@
         <v>8.967508532069246</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>12</v>
       </c>
@@ -5509,12 +5508,16 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>15</v>
       </c>
+      <c r="C25">
+        <f>(C20-N20)/C23</f>
+        <v>-57.721922518478422</v>
+      </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>16</v>
       </c>
@@ -5528,431 +5531,802 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5DEEAB6-47B1-4477-9E37-0A99D65A087F}">
-  <dimension ref="A2:O65"/>
+  <dimension ref="A2:R63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" customWidth="1"/>
-    <col min="7" max="7" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" customWidth="1"/>
-    <col min="12" max="12" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
+    <col min="8" max="8" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" customWidth="1"/>
+    <col min="14" max="14" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C2" s="6" t="s">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="5"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="6"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C3" s="6" t="s">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="5"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5"/>
+      <c r="I3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="6"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" s="1">
         <v>54.959874868392902</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
+        <f>(C4-MIN(C$4:C$18))/(MAX(C$4:C$18)-MIN(C$4:C$18))</f>
+        <v>0.37264341153514224</v>
+      </c>
+      <c r="E4" s="3">
         <v>84.652799999999999</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3">
+        <f>(E4-MIN(E$4:E$18))/(MAX(E$4:E$18)-MIN(E$4:E$18))</f>
+        <v>0.42075516988049216</v>
+      </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="1">
+      <c r="H4" s="3"/>
+      <c r="I4" s="1">
         <v>78.262053728103595</v>
       </c>
-      <c r="I4">
+      <c r="J4" s="1">
+        <f>(I4-MIN(I$4:I$18))/(MAX(I$4:I$18)-MIN(I$4:I$18))</f>
+        <v>0.8843523068710385</v>
+      </c>
+      <c r="K4">
         <v>116.657028</v>
       </c>
-      <c r="M4">
+      <c r="L4" s="1">
+        <f>(K4-MIN(K$4:K$18))/(MAX(K$4:K$18)-MIN(K$4:K$18))</f>
+        <v>0.47662860278554336</v>
+      </c>
+      <c r="O4">
         <v>40.401829004287698</v>
       </c>
-      <c r="N4">
+      <c r="P4" s="1">
+        <f>(O4-MIN(O$4:O$18))/(MAX(O$4:O$18)-MIN(O$4:O$18))</f>
+        <v>1.667122539961248E-2</v>
+      </c>
+      <c r="Q4">
         <v>84.973619999999997</v>
       </c>
+      <c r="R4" s="1">
+        <f>(Q4-MIN(Q$4:Q$18))/(MAX(Q$4:Q$18)-MIN(Q$4:Q$18))</f>
+        <v>0.46923148863731123</v>
+      </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" s="1">
         <v>55.274461746215799</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
+        <f t="shared" ref="D5:D18" si="0">(C5-MIN(C$4:C$18))/(MAX(C$4:C$18)-MIN(C$4:C$18))</f>
+        <v>0.41775332968093448</v>
+      </c>
+      <c r="E5">
         <v>85.44914</v>
       </c>
-      <c r="H5" s="1">
+      <c r="F5" s="3">
+        <f t="shared" ref="F5:F18" si="1">(E5-MIN(E$4:E$18))/(MAX(E$4:E$18)-MIN(E$4:E$18))</f>
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
         <v>75.808310508727999</v>
       </c>
-      <c r="I5">
+      <c r="J5" s="1">
+        <f t="shared" ref="J5:J18" si="2">(I5-MIN(I$4:I$18))/(MAX(I$4:I$18)-MIN(I$4:I$18))</f>
+        <v>0.61791164057682491</v>
+      </c>
+      <c r="K5">
         <v>116.31923999999999</v>
       </c>
-      <c r="M5" s="1">
+      <c r="L5" s="1">
+        <f t="shared" ref="L5:L18" si="3">(K5-MIN(K$4:K$18))/(MAX(K$4:K$18)-MIN(K$4:K$18))</f>
+        <v>0.42759152316496224</v>
+      </c>
+      <c r="O5" s="1">
         <v>135.85113525390599</v>
       </c>
-      <c r="N5">
+      <c r="P5" s="1">
+        <f t="shared" ref="P5:P18" si="4">(O5-MIN(O$4:O$18))/(MAX(O$4:O$18)-MIN(O$4:O$18))</f>
+        <v>0.96113118200536007</v>
+      </c>
+      <c r="Q5">
         <v>85.444310000000002</v>
       </c>
+      <c r="R5" s="1">
+        <f t="shared" ref="R5:R18" si="5">(Q5-MIN(Q$4:Q$18))/(MAX(Q$4:Q$18)-MIN(Q$4:Q$18))</f>
+        <v>0.47717738583712915</v>
+      </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" s="1">
         <v>52.361139774322503</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>84.469549999999998</v>
       </c>
-      <c r="H6" s="1">
+      <c r="F6" s="3">
+        <f t="shared" si="1"/>
+        <v>0.28746208511845545</v>
+      </c>
+      <c r="I6" s="1">
         <v>75.558684110641394</v>
       </c>
-      <c r="I6">
+      <c r="J6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.59080586059722928</v>
+      </c>
+      <c r="K6">
         <v>116.99526</v>
       </c>
-      <c r="M6" s="1">
+      <c r="L6" s="1">
+        <f t="shared" si="3"/>
+        <v>0.52573013840619442</v>
+      </c>
+      <c r="O6" s="1">
         <v>45.360584259033203</v>
       </c>
-      <c r="N6" s="3">
+      <c r="P6" s="1">
+        <f t="shared" si="4"/>
+        <v>6.5737540878822068E-2</v>
+      </c>
+      <c r="Q6" s="3">
         <v>85.650300000000001</v>
       </c>
+      <c r="R6" s="1">
+        <f t="shared" si="5"/>
+        <v>0.48065478149922197</v>
+      </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" s="1">
         <v>54.494693517684901</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.30593912685992286</v>
+      </c>
+      <c r="E7">
         <v>85.056229999999999</v>
       </c>
-      <c r="H7" s="1">
+      <c r="F7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.71420362382618485</v>
+      </c>
+      <c r="I7" s="1">
         <v>78.6530117988586</v>
       </c>
-      <c r="I7">
+      <c r="J7" s="1">
+        <f t="shared" si="2"/>
+        <v>0.9268046417537289</v>
+      </c>
+      <c r="K7">
         <v>116.06432</v>
       </c>
-      <c r="M7" s="1">
+      <c r="L7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.39058448816999985</v>
+      </c>
+      <c r="O7" s="1">
         <v>42.247034072875898</v>
       </c>
-      <c r="N7">
+      <c r="P7" s="1">
+        <f t="shared" si="4"/>
+        <v>3.4929318281397947E-2</v>
+      </c>
+      <c r="Q7">
         <v>57.177819999999997</v>
       </c>
+      <c r="R7" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>5</v>
       </c>
       <c r="C8" s="1">
         <v>53.376106500625603</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.14554029163928184</v>
+      </c>
+      <c r="E8">
         <v>85.262860000000003</v>
       </c>
-      <c r="H8" s="1">
+      <c r="F8" s="3">
+        <f t="shared" si="1"/>
+        <v>0.86450294226754931</v>
+      </c>
+      <c r="I8" s="1">
         <v>72.045760154724107</v>
       </c>
-      <c r="I8">
+      <c r="J8" s="1">
+        <f t="shared" si="2"/>
+        <v>0.20935364014292804</v>
+      </c>
+      <c r="K8">
         <v>118.91829</v>
       </c>
-      <c r="M8" s="1">
+      <c r="L8" s="1">
+        <f t="shared" si="3"/>
+        <v>0.8048986560052952</v>
+      </c>
+      <c r="O8" s="1">
         <v>48.698297262191701</v>
       </c>
-      <c r="N8">
+      <c r="P8" s="1">
+        <f t="shared" si="4"/>
+        <v>9.876382888432679E-2</v>
+      </c>
+      <c r="Q8">
         <v>87.333560000000006</v>
       </c>
+      <c r="R8" s="1">
+        <f t="shared" si="5"/>
+        <v>0.50907053479877229</v>
+      </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>6</v>
       </c>
       <c r="C9" s="1">
         <v>54.613642930984497</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.32299577694834636</v>
+      </c>
+      <c r="E9">
         <v>85.144090000000006</v>
       </c>
-      <c r="H9" s="1">
+      <c r="F9" s="3">
+        <f t="shared" si="1"/>
+        <v>0.77811156613010479</v>
+      </c>
+      <c r="I9" s="1">
         <v>77.804898262023897</v>
       </c>
-      <c r="I9">
+      <c r="J9" s="1">
+        <f t="shared" si="2"/>
+        <v>0.83471190194989431</v>
+      </c>
+      <c r="K9">
         <v>115.75485</v>
       </c>
-      <c r="M9" s="1">
+      <c r="L9" s="1">
+        <f t="shared" si="3"/>
+        <v>0.34565836577909009</v>
+      </c>
+      <c r="O9" s="1">
         <v>52.721425294876099</v>
       </c>
-      <c r="N9">
+      <c r="P9" s="1">
+        <f t="shared" si="4"/>
+        <v>0.13857222012848702</v>
+      </c>
+      <c r="Q9">
         <v>86.117850000000004</v>
       </c>
+      <c r="R9" s="1">
+        <f t="shared" si="5"/>
+        <v>0.48854767116285375</v>
+      </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>7</v>
       </c>
       <c r="C10" s="1">
         <v>58.057340383529599</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.81680184819406831</v>
+      </c>
+      <c r="E10">
         <v>84.786169999999998</v>
       </c>
-      <c r="H10" s="1">
+      <c r="F10" s="3">
+        <f t="shared" si="1"/>
+        <v>0.51776634976978353</v>
+      </c>
+      <c r="I10" s="1">
         <v>76.690699815750094</v>
       </c>
-      <c r="I10">
+      <c r="J10" s="1">
+        <f t="shared" si="2"/>
+        <v>0.71372622827996823</v>
+      </c>
+      <c r="K10">
         <v>116.05548</v>
       </c>
-      <c r="M10" s="1">
+      <c r="L10" s="1">
+        <f t="shared" si="3"/>
+        <v>0.38930117501546047</v>
+      </c>
+      <c r="O10" s="1">
         <v>49.401434898376401</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="1">
+        <f t="shared" si="4"/>
+        <v>0.1057212952866719</v>
+      </c>
+      <c r="Q10" s="3">
         <v>85.950400000000002</v>
       </c>
+      <c r="R10" s="1">
+        <f t="shared" si="5"/>
+        <v>0.4857208839226117</v>
+      </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>8</v>
       </c>
       <c r="C11" s="1">
         <v>59.334924936294499</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E11">
         <v>84.369529999999997</v>
       </c>
-      <c r="H11" s="1">
+      <c r="F11" s="3">
+        <f t="shared" si="1"/>
+        <v>0.21470915558012574</v>
+      </c>
+      <c r="I11" s="1">
         <v>74.823342323303194</v>
       </c>
-      <c r="I11">
+      <c r="J11" s="1">
+        <f t="shared" si="2"/>
+        <v>0.51095848527886767</v>
+      </c>
+      <c r="K11">
         <v>114.75794999999999</v>
       </c>
-      <c r="M11" s="1">
+      <c r="L11" s="1">
+        <f t="shared" si="3"/>
+        <v>0.20093722508209266</v>
+      </c>
+      <c r="O11" s="1">
         <v>60.815525293350198</v>
       </c>
-      <c r="N11">
+      <c r="P11" s="1">
+        <f t="shared" si="4"/>
+        <v>0.21866241285686006</v>
+      </c>
+      <c r="Q11">
         <v>116.41468</v>
       </c>
+      <c r="R11" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>9</v>
       </c>
       <c r="C12" s="1">
         <v>55.130685567855799</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.39713666670370223</v>
+      </c>
+      <c r="E12">
         <v>85.046859999999995</v>
       </c>
-      <c r="H12" s="1">
+      <c r="F12" s="3">
+        <f t="shared" si="1"/>
+        <v>0.70738803744571654</v>
+      </c>
+      <c r="I12" s="1">
         <v>74.272506237030001</v>
       </c>
-      <c r="I12">
+      <c r="J12" s="1">
+        <f t="shared" si="2"/>
+        <v>0.45114573360761751</v>
+      </c>
+      <c r="K12">
         <v>113.37381000000001</v>
       </c>
-      <c r="M12" s="1">
+      <c r="L12" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
         <v>113.404592275619</v>
       </c>
-      <c r="N12">
+      <c r="P12" s="1">
+        <f t="shared" si="4"/>
+        <v>0.73902520931468096</v>
+      </c>
+      <c r="Q12">
         <v>107.32852</v>
       </c>
+      <c r="R12" s="1">
+        <f t="shared" si="5"/>
+        <v>0.84661307165842337</v>
+      </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>10</v>
       </c>
       <c r="C13" s="1">
         <v>59.192314386367798</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.97955048132191458</v>
+      </c>
+      <c r="E13">
         <v>84.77364</v>
       </c>
-      <c r="H13" s="1">
+      <c r="F13" s="3">
+        <f t="shared" si="1"/>
+        <v>0.50865223052248165</v>
+      </c>
+      <c r="I13" s="1">
         <v>70.117750883102403</v>
       </c>
-      <c r="I13">
+      <c r="J13" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K13">
         <v>116.49312</v>
       </c>
-      <c r="M13" s="1">
+      <c r="L13" s="1">
+        <f t="shared" si="3"/>
+        <v>0.45283388643549616</v>
+      </c>
+      <c r="O13" s="1">
         <v>42.963832855224602</v>
       </c>
-      <c r="N13">
+      <c r="P13" s="1">
+        <f t="shared" si="4"/>
+        <v>4.2021960160864902E-2</v>
+      </c>
+      <c r="Q13">
         <v>86.542479999999998</v>
       </c>
+      <c r="R13" s="1">
+        <f t="shared" si="5"/>
+        <v>0.49571601195606918</v>
+      </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>11</v>
       </c>
       <c r="C14" s="1">
         <v>55.940476894378598</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.51325600616064238</v>
+      </c>
+      <c r="E14">
         <v>84.877070000000003</v>
       </c>
-      <c r="H14" s="1">
+      <c r="F14" s="3">
+        <f t="shared" si="1"/>
+        <v>0.58388553888230588</v>
+      </c>
+      <c r="I14" s="1">
         <v>74.899099588394094</v>
       </c>
-      <c r="I14">
+      <c r="J14" s="1">
+        <f t="shared" si="2"/>
+        <v>0.51918461751147482</v>
+      </c>
+      <c r="K14">
         <v>116.00306</v>
       </c>
-      <c r="M14" s="1">
+      <c r="L14" s="1">
+        <f t="shared" si="3"/>
+        <v>0.38169130221444109</v>
+      </c>
+      <c r="O14" s="1">
         <v>46.0656352043151</v>
       </c>
-      <c r="N14">
+      <c r="P14" s="1">
+        <f t="shared" si="4"/>
+        <v>7.2713939255614299E-2</v>
+      </c>
+      <c r="Q14">
         <v>87.012029999999996</v>
       </c>
+      <c r="R14" s="1">
+        <f t="shared" si="5"/>
+        <v>0.50364266438160288</v>
+      </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>12</v>
       </c>
       <c r="C15" s="1">
         <v>55.067856788635197</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.38812738727203761</v>
+      </c>
+      <c r="E15">
         <v>84.82687</v>
       </c>
-      <c r="H15" s="1">
+      <c r="F15" s="3">
+        <f t="shared" si="1"/>
+        <v>0.54737087118760075</v>
+      </c>
+      <c r="I15" s="1">
         <v>76.601675033569293</v>
       </c>
-      <c r="I15">
+      <c r="J15" s="1">
+        <f t="shared" si="2"/>
+        <v>0.70405943751977385</v>
+      </c>
+      <c r="K15">
         <v>119.4113</v>
       </c>
-      <c r="M15" s="1">
+      <c r="L15" s="1">
+        <f t="shared" si="3"/>
+        <v>0.87646949518176798</v>
+      </c>
+      <c r="O15" s="1">
         <v>53.957095861434901</v>
       </c>
-      <c r="N15">
+      <c r="P15" s="1">
+        <f t="shared" si="4"/>
+        <v>0.15079903890304247</v>
+      </c>
+      <c r="Q15">
         <v>96.375389999999996</v>
       </c>
+      <c r="R15" s="1">
+        <f t="shared" si="5"/>
+        <v>0.66170911152279166</v>
+      </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>13</v>
       </c>
       <c r="C16" s="1">
         <v>54.453131914138702</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.29997943602045818</v>
+      </c>
+      <c r="E16">
         <v>84.478229999999996</v>
       </c>
-      <c r="H16" s="1">
+      <c r="F16" s="3">
+        <f t="shared" si="1"/>
+        <v>0.29377577666407206</v>
+      </c>
+      <c r="I16" s="1">
         <v>79.258589982986393</v>
       </c>
-      <c r="I16">
+      <c r="J16" s="1">
+        <f t="shared" si="2"/>
+        <v>0.99256158551140061</v>
+      </c>
+      <c r="K16">
         <v>116.68213</v>
       </c>
-      <c r="M16" s="1">
+      <c r="L16" s="1">
+        <f t="shared" si="3"/>
+        <v>0.48027268952822222</v>
+      </c>
+      <c r="O16" s="1">
         <v>139.77930784225401</v>
       </c>
-      <c r="N16">
+      <c r="P16" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q16">
         <v>73.421120000000002</v>
       </c>
+      <c r="R16" s="1">
+        <f t="shared" si="5"/>
+        <v>0.27420933520108937</v>
+      </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>14</v>
       </c>
       <c r="C17" s="1">
         <v>55.049853324890101</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>0.38554579587985238</v>
+      </c>
+      <c r="E17">
         <v>84.074349999999995</v>
       </c>
-      <c r="H17" s="1">
+      <c r="F17" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
         <v>79.327092885970998</v>
       </c>
-      <c r="I17">
+      <c r="J17" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K17">
         <v>120.26223</v>
       </c>
-      <c r="M17" s="1">
+      <c r="L17" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O17" s="1">
         <v>55.211561441421502</v>
       </c>
-      <c r="N17">
+      <c r="P17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.16321183218347857</v>
+      </c>
+      <c r="Q17">
         <v>61.832329999999999</v>
       </c>
+      <c r="R17" s="1">
+        <f t="shared" si="5"/>
+        <v>7.8574556450156222E-2</v>
+      </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>15</v>
       </c>
       <c r="C18" s="1">
         <v>54.397413253784102</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>0.29198970604448565</v>
+      </c>
+      <c r="E18" s="3">
         <v>84.998500000000007</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="F18" s="3">
+        <f t="shared" si="1"/>
+        <v>0.67221175597728278</v>
+      </c>
       <c r="G18" s="3"/>
-      <c r="H18" s="1">
+      <c r="H18" s="3"/>
+      <c r="I18" s="1">
         <v>78.2503178119659</v>
       </c>
-      <c r="I18">
+      <c r="J18" s="1">
+        <f t="shared" si="2"/>
+        <v>0.88307795783133081</v>
+      </c>
+      <c r="K18">
         <v>116.50902000000001</v>
       </c>
-      <c r="M18" s="1">
+      <c r="L18" s="1">
+        <f t="shared" si="3"/>
+        <v>0.45514210805961341</v>
+      </c>
+      <c r="O18" s="1">
         <v>38.716996431350701</v>
       </c>
-      <c r="N18">
+      <c r="P18" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>90.468850000000003</v>
       </c>
+      <c r="R18" s="1">
+        <f t="shared" si="5"/>
+        <v>0.56199855968057733</v>
+      </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C19" s="1"/>
-      <c r="D19" s="3"/>
+      <c r="D19" s="1"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -5961,518 +6335,511 @@
         <v>55.44692778587337</v>
       </c>
       <c r="D20" s="1">
-        <f>AVERAGE(D4:D18)</f>
+        <f t="shared" ref="D20:F20" si="6">AVERAGE(D4:D18)</f>
+        <v>0.4424839509507193</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="6"/>
         <v>84.817726000000008</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="F20" s="1">
+        <f t="shared" si="6"/>
+        <v>0.54071967355014372</v>
+      </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="1">
-        <f t="shared" ref="H20:N20" si="0">AVERAGE(H4:H18)</f>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1">
+        <f t="shared" ref="I20:R20" si="7">AVERAGE(I4:I18)</f>
         <v>76.158252875010149</v>
       </c>
-      <c r="I20" s="1">
-        <f t="shared" si="0"/>
+      <c r="J20" s="1">
+        <f t="shared" si="7"/>
+        <v>0.65591026916213846</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="7"/>
         <v>116.68380586666667</v>
       </c>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1">
-        <f t="shared" si="0"/>
+      <c r="L20" s="1">
+        <f t="shared" si="7"/>
+        <v>0.48051597705521193</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1">
+        <f t="shared" si="7"/>
         <v>64.373085816701149</v>
       </c>
-      <c r="N20" s="1">
-        <f t="shared" si="0"/>
+      <c r="P20" s="1">
+        <f t="shared" si="7"/>
+        <v>0.25386406690261465</v>
+      </c>
+      <c r="Q20" s="1">
+        <f t="shared" si="7"/>
         <v>86.136217333333335</v>
       </c>
+      <c r="R20" s="1">
+        <f t="shared" si="7"/>
+        <v>0.48885773711390729</v>
+      </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1">
-        <f>C20-D20</f>
-        <v>-29.370798214126637</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1">
-        <f t="shared" ref="J21:O21" si="1">H20-I20</f>
-        <v>-40.525552991656525</v>
-      </c>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1">
-        <f t="shared" si="1"/>
-        <v>-21.763131516632185</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="C22">
+      <c r="C21">
         <f>_xlfn.STDEV.P(C4:C18)</f>
         <v>1.9038774056451977</v>
       </c>
-      <c r="D22">
-        <f>_xlfn.STDEV.P(D4:D18)</f>
+      <c r="D21">
+        <f t="shared" ref="D21:F21" si="8">_xlfn.STDEV.P(D4:D18)</f>
+        <v>0.27300488349240065</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="8"/>
         <v>0.35299896343190773</v>
       </c>
-      <c r="H22">
-        <f t="shared" ref="H22:N22" si="2">_xlfn.STDEV.P(H4:H18)</f>
+      <c r="F21">
+        <f t="shared" si="8"/>
+        <v>0.25676573398985042</v>
+      </c>
+      <c r="I21">
+        <f>_xlfn.STDEV.P(I4:I18)</f>
         <v>2.5648578078411797</v>
       </c>
-      <c r="I22">
-        <f t="shared" si="2"/>
+      <c r="J21">
+        <f>_xlfn.STDEV.P(J4:J18)</f>
+        <v>0.27850608730159654</v>
+      </c>
+      <c r="K21">
+        <f>_xlfn.STDEV.P(K4:K18)</f>
         <v>1.6793794370712793</v>
       </c>
-      <c r="M22">
-        <f t="shared" si="2"/>
+      <c r="L21">
+        <f>_xlfn.STDEV.P(L4:L18)</f>
+        <v>0.24379747998398477</v>
+      </c>
+      <c r="O21">
+        <f>_xlfn.STDEV.P(O4:O18)</f>
         <v>33.553344539975249</v>
       </c>
-      <c r="N22">
-        <f t="shared" si="2"/>
+      <c r="P21">
+        <f>_xlfn.STDEV.P(P4:P18)</f>
+        <v>0.33200650243939789</v>
+      </c>
+      <c r="Q21">
+        <f>_xlfn.STDEV.P(Q4:Q18)</f>
         <v>14.34089687658456</v>
       </c>
+      <c r="R21">
+        <f>_xlfn.STDEV.P(R4:R18)</f>
+        <v>0.24209414335237506</v>
+      </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" t="s">
+        <v>32</v>
+      </c>
+      <c r="N23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B25" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="12">
+        <v>0.4474725609089748</v>
+      </c>
+      <c r="D25" s="12">
+        <v>0.54928856666940462</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" s="12">
+        <v>0.63959298075436</v>
+      </c>
+      <c r="J25" s="12">
+        <v>0.48079364664590252</v>
+      </c>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="O25" s="12">
+        <v>0.27080641272425765</v>
+      </c>
+      <c r="P25" s="12">
+        <v>0.49025961200509277</v>
+      </c>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B26" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="12">
+        <v>8.559606830801629E-2</v>
+      </c>
+      <c r="D26" s="12">
+        <v>7.4885399009187975E-2</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" s="12">
+        <v>8.5197791596485759E-2</v>
+      </c>
+      <c r="J26" s="12">
+        <v>6.8580152124137456E-2</v>
+      </c>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O26" s="12">
+        <v>0.12254967059409221</v>
+      </c>
+      <c r="P26" s="12">
+        <v>6.7594685423737824E-2</v>
+      </c>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B27" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="12">
+        <v>14</v>
+      </c>
+      <c r="D27" s="12">
+        <v>14</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" s="12">
+        <v>14</v>
+      </c>
+      <c r="J27" s="12">
+        <v>14</v>
+      </c>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="O27" s="12">
+        <v>14</v>
+      </c>
+      <c r="P27" s="12">
+        <v>14</v>
+      </c>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B28" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="11">
+        <v>-0.20593606054110228</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="H28" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I28" s="11">
+        <v>0.16411545549869741</v>
+      </c>
+      <c r="J28" s="11"/>
+      <c r="N28" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O28" s="11">
+        <v>7.5593016525087875E-2</v>
+      </c>
+      <c r="P28" s="11"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B29" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="11">
+        <v>0</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="H29" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I29" s="11">
+        <v>0</v>
+      </c>
+      <c r="J29" s="11"/>
+      <c r="N29" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="O29" s="11">
+        <v>0</v>
+      </c>
+      <c r="P29" s="11"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B30" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="11">
+        <v>13</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="H30" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30" s="11">
+        <v>13</v>
+      </c>
+      <c r="J30" s="11"/>
+      <c r="N30" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="O30" s="11">
+        <v>13</v>
+      </c>
+      <c r="P30" s="11"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B31" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="12">
+        <v>-0.86614017832489865</v>
+      </c>
+      <c r="D31" s="12"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I31" s="12">
+        <v>1.6563152651528419</v>
+      </c>
+      <c r="J31" s="12"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="O31" s="12">
+        <v>-1.9551321642719919</v>
+      </c>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B32" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="11">
+        <v>0.20105810612633324</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I32" s="11">
+        <v>6.0791392959466214E-2</v>
+      </c>
+      <c r="J32" s="11"/>
+      <c r="K32" t="s">
+        <v>45</v>
+      </c>
+      <c r="N32" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="O32" s="11">
+        <v>3.6206577067064184E-2</v>
+      </c>
+      <c r="P32" s="11"/>
+      <c r="Q32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B33" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="11">
+        <v>1.7709333959868729</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="H33" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I33" s="11">
+        <v>1.7709333959868729</v>
+      </c>
+      <c r="J33" s="11"/>
+      <c r="N33" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O33" s="11">
+        <v>1.7709333959868729</v>
+      </c>
+      <c r="P33" s="11"/>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B34" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="12">
+        <v>0.40211621225266647</v>
+      </c>
+      <c r="D34" s="12"/>
+      <c r="E34" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I34" s="12">
+        <v>0.12158278591893243</v>
+      </c>
+      <c r="J34" s="12"/>
+      <c r="K34" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O34" s="12">
+        <v>7.2413154134128369E-2</v>
+      </c>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="14">
+        <v>2.1603686564627926</v>
+      </c>
+      <c r="D35" s="14"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I35" s="14">
+        <v>2.1603686564627926</v>
+      </c>
+      <c r="J35" s="14"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="O35" s="14">
+        <v>2.1603686564627926</v>
+      </c>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="6"/>
+    </row>
+    <row r="53" spans="2:14" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" t="s">
-        <v>22</v>
+      <c r="H53" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N53" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="9"/>
-      <c r="C26" s="9">
-        <v>54.959874868392902</v>
-      </c>
-      <c r="D26" s="9">
-        <v>84.652799999999999</v>
-      </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9">
-        <v>78.262053728103595</v>
-      </c>
-      <c r="I26" s="9">
-        <v>116.657028</v>
-      </c>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9">
-        <v>40.401829004287698</v>
-      </c>
-      <c r="N26" s="9">
-        <v>84.973619999999997</v>
-      </c>
-      <c r="O26" s="9"/>
+    <row r="54" spans="2:14" ht="211.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="N54" s="9"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="7">
-        <v>55.481717279979115</v>
-      </c>
-      <c r="D27" s="7">
-        <v>84.829506428571435</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" s="7">
-        <v>76.007981385503442</v>
-      </c>
-      <c r="I27" s="7">
-        <v>116.68571857142857</v>
-      </c>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M27" s="7">
-        <v>66.085318446159249</v>
-      </c>
-      <c r="N27" s="7">
-        <v>86.219259999999991</v>
-      </c>
-      <c r="O27" s="7"/>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="N55" s="8"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="7">
-        <v>4.1628517512974019</v>
-      </c>
-      <c r="D28" s="7">
-        <v>0.14153696448626524</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" s="7">
-        <v>7.2257934076431827</v>
-      </c>
-      <c r="I28" s="7">
-        <v>3.2541508563516457</v>
-      </c>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M28" s="7">
-        <v>1251.6721866172531</v>
-      </c>
-      <c r="N28" s="7">
-        <v>237.19012851001528</v>
-      </c>
-      <c r="O28" s="7"/>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="N56" s="8"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="7" t="s">
+    <row r="57" spans="2:14" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N57" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="7">
-        <v>14</v>
-      </c>
-      <c r="D29" s="7">
-        <v>14</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H29" s="7">
-        <v>14</v>
-      </c>
-      <c r="I29" s="7">
-        <v>14</v>
-      </c>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M29" s="7">
-        <v>14</v>
-      </c>
-      <c r="N29" s="7">
-        <v>14</v>
-      </c>
-      <c r="O29" s="7"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="7" t="s">
+    <row r="59" spans="2:14" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B59" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N59" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="7">
-        <v>-0.20593606054110233</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H30" s="7">
-        <v>0.16411545549869735</v>
-      </c>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M30" s="7">
-        <v>7.5593016525087847E-2</v>
-      </c>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="7">
-        <v>0</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M31" s="7">
-        <v>0</v>
-      </c>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="7">
-        <v>13</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H32" s="7">
-        <v>13</v>
-      </c>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M32" s="7">
-        <v>13</v>
-      </c>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="7">
-        <v>-51.08496665093346</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H33" s="7">
-        <v>-51.0517943578892</v>
-      </c>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M33" s="7">
-        <v>-2.0087468097395011</v>
-      </c>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="7">
-        <v>1.135856893008895E-16</v>
-      </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H34" s="7">
-        <v>1.1454443100736906E-16</v>
-      </c>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M34" s="7">
-        <v>3.2900481901524718E-2</v>
-      </c>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="7" t="s">
+    <row r="63" spans="2:14" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="H63" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="C35" s="7">
-        <v>1.7709333959868729</v>
-      </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H35" s="7">
-        <v>1.7709333959868729</v>
-      </c>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M35" s="7">
-        <v>1.7709333959868729</v>
-      </c>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="7">
-        <v>2.27171378601779E-16</v>
-      </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H36" s="7">
-        <v>2.2908886201473813E-16</v>
-      </c>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M36" s="7">
-        <v>6.5800963803049436E-2</v>
-      </c>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-    </row>
-    <row r="37" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" s="8">
-        <v>2.1603686564627926</v>
-      </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H37" s="8">
-        <v>2.1603686564627926</v>
-      </c>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="M37" s="8">
-        <v>2.1603686564627926</v>
-      </c>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-    </row>
-    <row r="55" spans="2:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G55" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="L55" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="56" spans="2:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="L56" s="11"/>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="L57" s="12"/>
-    </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="L58" s="12"/>
-    </row>
-    <row r="59" spans="2:12" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G59" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="L59" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="61" spans="2:12" ht="195" x14ac:dyDescent="0.25">
-      <c r="B61" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="L61" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="65" spans="7:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="G65" s="10" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="I3:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
